--- a/economics/sem1/Упражнение_1_Экономика.xlsx
+++ b/economics/sem1/Упражнение_1_Экономика.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\bmstu-7th-term\economics\sem1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FBD175-FC02-41DC-9514-4F190B7A01D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Линейный метод" sheetId="2" r:id="rId1"/>
-    <sheet name="Метод уменьшаемого остатка" sheetId="3" r:id="rId2"/>
+    <sheet name="Линейный_метод" sheetId="2" r:id="rId1"/>
+    <sheet name="Метод_уменьшаемого_остатка" sheetId="3" r:id="rId2"/>
     <sheet name="Метод лет полезного использован" sheetId="4" r:id="rId3"/>
+    <sheet name="Экономия налога на прибыль" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Первоначальная стоимость, тыс. руб.</t>
   </si>
@@ -69,13 +71,25 @@
   <si>
     <t>Дисконтированный налог на имущество, тыс. руб.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> № года аморт. периода</t>
+  </si>
+  <si>
+    <t>Годовая сумма амортизации при нелинейном методе, тыс.руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономия налога на прибыль дисконтированная, тыс.руб. </t>
+  </si>
+  <si>
+    <t>Экономия налога на прибыль, тыс.руб.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -110,15 +124,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -290,22 +310,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,39 +389,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="20% — акцент3" xfId="2" builtinId="38"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,362 +763,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="30">
         <v>2460</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
-        <f>1/8*100%</f>
-        <v>0.125</v>
-      </c>
-      <c r="E2" s="10">
-        <f>$D$2/100%*$B$2</f>
+      <c r="D2" s="17">
+        <f>$B$8/100%*$B$2</f>
         <v>307.5</v>
       </c>
-      <c r="F2" s="10">
-        <f>E2/(1+$B$4/100)^C2</f>
+      <c r="E2" s="17">
+        <f>D2/(1+$B$4/100)^C2</f>
         <v>269.73684210526312</v>
       </c>
-      <c r="G2" s="10">
-        <f>$B$2-E2</f>
+      <c r="F2" s="17">
+        <f>$B$2-D2</f>
         <v>2152.5</v>
       </c>
-      <c r="H2" s="10">
-        <f>($B$2+G2)/2</f>
+      <c r="G2" s="17">
+        <f>($B$2+F2)/2</f>
         <v>2306.25</v>
       </c>
-      <c r="I2" s="10">
-        <f>$B$7/100*H2</f>
+      <c r="H2" s="17">
+        <f>$B$7/100*G2</f>
         <v>50.737500000000004</v>
       </c>
-      <c r="J2" s="11">
-        <f>I2/(1+$B$4/100)^C2</f>
+      <c r="I2" s="18">
+        <f>H2/(1+$B$4/100)^C2</f>
         <v>44.506578947368418</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="32">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="16">
         <f>C2+1</f>
         <v>2</v>
       </c>
       <c r="D3" s="17">
-        <f t="shared" ref="D3:D9" si="0">1/8*100%</f>
+        <f t="shared" ref="D3:D9" si="0">$B$8/100%*$B$2</f>
+        <v>307.5</v>
+      </c>
+      <c r="E3" s="17">
+        <f>D3/(1+$B$4/100)^C3</f>
+        <v>236.61126500461674</v>
+      </c>
+      <c r="F3" s="17">
+        <f>F2-D3</f>
+        <v>1845</v>
+      </c>
+      <c r="G3" s="17">
+        <f>(G2+F3)/2</f>
+        <v>2075.625</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H9" si="1">$B$7/100*G3</f>
+        <v>45.663750000000007</v>
+      </c>
+      <c r="I3" s="18">
+        <f>H3/(1+$B$4/100)^C3</f>
+        <v>35.13677285318559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" ref="C4:C9" si="2">C3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+      <c r="E4" s="17">
+        <f>D4/(1+$B$4/100)^C4</f>
+        <v>207.55374123211993</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F9" si="3">F3-D4</f>
+        <v>1537.5</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G9" si="4">(G3+F4)/2</f>
+        <v>1806.5625</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
+        <v>39.744375000000005</v>
+      </c>
+      <c r="I4" s="18">
+        <f>H4/(1+$B$4/100)^C4</f>
+        <v>26.826321054251508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32">
+        <v>500000</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+      <c r="E5" s="17">
+        <f>D5/(1+$B$4/100)^C5</f>
+        <v>182.06468529133326</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="3"/>
+        <v>1230</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="4"/>
+        <v>1518.28125</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
+        <v>33.402187500000004</v>
+      </c>
+      <c r="I5" s="18">
+        <f>H5/(1+$B$4/100)^C5</f>
+        <v>19.776776439771076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32">
+        <v>11</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+      <c r="E6" s="17">
+        <f>D6/(1+$B$4/100)^C6</f>
+        <v>159.70586429064318</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="3"/>
+        <v>922.5</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="4"/>
+        <v>1220.390625</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>26.848593750000003</v>
+      </c>
+      <c r="I6" s="18">
+        <f>H6/(1+$B$4/100)^C6</f>
+        <v>13.944318275876785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+      <c r="E7" s="17">
+        <f>D7/(1+$B$4/100)^C7</f>
+        <v>140.09286341284488</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>615</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>917.6953125</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
+        <v>20.189296875000004</v>
+      </c>
+      <c r="I7" s="18">
+        <f>H7/(1+$B$4/100)^C7</f>
+        <v>9.1979720634495994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34">
+        <f>1/$B$3*100%</f>
         <v>0.125</v>
       </c>
-      <c r="E3" s="10">
-        <f>$D$2/100%*$B$2</f>
+      <c r="C8" s="16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
         <v>307.5</v>
       </c>
-      <c r="F3" s="10">
-        <f t="shared" ref="F3:F9" si="1">E3/(1+$B$4/100)^C3</f>
-        <v>236.61126500461674</v>
-      </c>
-      <c r="G3" s="10">
-        <f>G2-E3</f>
-        <v>1845</v>
-      </c>
-      <c r="H3" s="10">
-        <f>(H2+G3)/2</f>
-        <v>2075.625</v>
-      </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I9" si="2">$B$7/100*H3</f>
-        <v>45.663750000000007</v>
-      </c>
-      <c r="J3" s="11">
-        <f t="shared" ref="J3:J9" si="3">I3/(1+$B$4/100)^C3</f>
-        <v>35.13677285318559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" ref="C4:C10" si="4">C3+1</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E4" s="10">
-        <f>$D$2/100%*$B$2</f>
+      <c r="E8" s="17">
+        <f>D8/(1+$B$4/100)^C8</f>
+        <v>122.88847667793409</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="3"/>
         <v>307.5</v>
       </c>
-      <c r="F4" s="10">
-        <f t="shared" si="1"/>
-        <v>207.55374123211993</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" ref="G4:G9" si="5">G3-E4</f>
-        <v>1537.5</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" ref="H4:H9" si="6">(H3+G4)/2</f>
-        <v>1806.5625</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="G8" s="17">
+        <f t="shared" si="4"/>
+        <v>612.59765625</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>13.477148437500002</v>
+      </c>
+      <c r="I8" s="18">
+        <f>H8/(1+$B$4/100)^C8</f>
+        <v>5.3859715169000815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="19">
         <f t="shared" si="2"/>
-        <v>39.744375000000005</v>
-      </c>
-      <c r="J4" s="11">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+      <c r="E9" s="20">
+        <f>D9/(1+$B$4/100)^C9</f>
+        <v>107.79690936660884</v>
+      </c>
+      <c r="F9" s="20">
         <f t="shared" si="3"/>
-        <v>26.826321054251508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>500000</v>
-      </c>
-      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D5" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E5" s="10">
-        <f>$D$2/100%*$B$2</f>
-        <v>307.5</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>182.06468529133326</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" si="5"/>
-        <v>1230</v>
-      </c>
-      <c r="H5" s="10">
-        <f t="shared" si="6"/>
-        <v>1518.28125</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" si="2"/>
-        <v>33.402187500000004</v>
-      </c>
-      <c r="J5" s="11">
-        <f t="shared" si="3"/>
-        <v>19.776776439771076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E6" s="10">
-        <f>$D$2/100%*$B$2</f>
-        <v>307.5</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="1"/>
-        <v>159.70586429064318</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="5"/>
-        <v>922.5</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="6"/>
-        <v>1220.390625</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="2"/>
-        <v>26.848593750000003</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="3"/>
-        <v>13.944318275876785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7:E9" si="7">$D$2/100%*$B$2</f>
-        <v>307.5</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>140.09286341284488</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="5"/>
-        <v>615</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="6"/>
-        <v>917.6953125</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="2"/>
-        <v>20.189296875000004</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="3"/>
-        <v>9.1979720634495994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="D8" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="7"/>
-        <v>307.5</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="1"/>
-        <v>122.88847667793409</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="5"/>
-        <v>307.5</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="6"/>
-        <v>612.59765625</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
-        <v>13.477148437500002</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="3"/>
-        <v>5.3859715169000815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="7"/>
-        <v>307.5</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="1"/>
-        <v>107.79690936660884</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="6"/>
         <v>306.298828125</v>
       </c>
-      <c r="I9" s="13">
-        <f t="shared" si="2"/>
+      <c r="H9" s="20">
+        <f t="shared" si="1"/>
         <v>6.7385742187500011</v>
       </c>
-      <c r="J9" s="14">
-        <f t="shared" si="3"/>
+      <c r="I9" s="21">
+        <f>H9/(1+$B$4/100)^C9</f>
         <v>2.362268209166702</v>
       </c>
     </row>
@@ -988,362 +1099,332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="4">
         <v>2460</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
-        <f>1/8*100%</f>
-        <v>0.125</v>
-      </c>
-      <c r="E2" s="10">
-        <f>2*$D$2/100%*$B$2</f>
+      <c r="D2" s="5">
+        <f>2*$B$8/100%*$B$2</f>
         <v>615</v>
       </c>
-      <c r="F2" s="10">
-        <f>E2/(1+$B$4/100)^C2</f>
+      <c r="E2" s="5">
+        <f>D2/(1+$B$4/100)^C2</f>
         <v>539.47368421052624</v>
       </c>
-      <c r="G2" s="10">
-        <f>$B$2-E2</f>
+      <c r="F2" s="5">
+        <f>$B$2-D2</f>
         <v>1845</v>
       </c>
-      <c r="H2" s="10">
-        <f>($B$2+G2)/2</f>
+      <c r="G2" s="5">
+        <f>($B$2+F2)/2</f>
         <v>2152.5</v>
       </c>
-      <c r="I2" s="10">
-        <f>$B$7/100*H2</f>
+      <c r="H2" s="5">
+        <f>$B$7/100*G2</f>
         <v>47.355000000000004</v>
       </c>
-      <c r="J2" s="11">
-        <f>I2/(1+$B$4/100)^C2</f>
+      <c r="I2" s="6">
+        <f>H2/(1+$B$4/100)^C2</f>
         <v>41.539473684210527</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D9" si="0">1/8*100%</f>
+      <c r="D3" s="5">
+        <f>2*$B$8/100%*D2</f>
+        <v>153.75</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(1+$B$4/100)^C3</f>
+        <v>118.30563250230837</v>
+      </c>
+      <c r="F3" s="5">
+        <f>F2-D3</f>
+        <v>1691.25</v>
+      </c>
+      <c r="G3" s="5">
+        <f>(G2+F3)/2</f>
+        <v>1921.875</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H9" si="0">$B$7/100*G3</f>
+        <v>42.281250000000007</v>
+      </c>
+      <c r="I3" s="6">
+        <f>H3/(1+$B$4/100)^C3</f>
+        <v>32.534048938134809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" ref="C4:C9" si="1">C3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D9" si="2">2*$B$8/100%*D3</f>
+        <v>38.4375</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(1+$B$4/100)^C4</f>
+        <v>25.944217654014992</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="3">F3-D4</f>
+        <v>1652.8125</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G9" si="4">(G3+F4)/2</f>
+        <v>1787.34375</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>39.321562500000006</v>
+      </c>
+      <c r="I4" s="6">
+        <f>H4/(1+$B$4/100)^C4</f>
+        <v>26.540934660057342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="2"/>
+        <v>9.609375</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(1+$B$4/100)^C5</f>
+        <v>5.6895214153541644</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>1643.203125</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="4"/>
+        <v>1715.2734375</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>37.736015625</v>
+      </c>
+      <c r="I5" s="6">
+        <f>H5/(1+$B$4/100)^C5</f>
+        <v>22.342750598095801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="2"/>
+        <v>2.40234375</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(1+$B$4/100)^C6</f>
+        <v>1.2477020647706498</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>1640.80078125</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>1678.037109375</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>36.916816406250007</v>
+      </c>
+      <c r="I6" s="6">
+        <f>H6/(1+$B$4/100)^C6</f>
+        <v>19.173437629330582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.6005859375</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(1+$B$4/100)^C7</f>
+        <v>0.27361887385321265</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>1640.2001953125</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>1659.11865234375</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>36.500610351562507</v>
+      </c>
+      <c r="I7" s="6">
+        <f>H7/(1+$B$4/100)^C7</f>
+        <v>16.629187058429004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <f>1/$B$3*100%</f>
         <v>0.125</v>
       </c>
-      <c r="E3" s="10">
-        <f>2*$D$2/100%*E2</f>
-        <v>153.75</v>
-      </c>
-      <c r="F3" s="10">
-        <f t="shared" ref="F3:F9" si="1">E3/(1+$B$4/100)^C3</f>
-        <v>118.30563250230837</v>
-      </c>
-      <c r="G3" s="10">
-        <f>G2-E3</f>
-        <v>1691.25</v>
-      </c>
-      <c r="H3" s="10">
-        <f>(H2+G3)/2</f>
-        <v>1921.875</v>
-      </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I9" si="2">$B$7/100*H3</f>
-        <v>42.281250000000007</v>
-      </c>
-      <c r="J3" s="11">
-        <f t="shared" ref="J3:J9" si="3">I3/(1+$B$4/100)^C3</f>
-        <v>32.534048938134809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" ref="C4:C10" si="4">C3+1</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:E9" si="5">2*$D$2/100%*E3</f>
-        <v>38.4375</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" si="1"/>
-        <v>25.944217654014992</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" ref="G4:G9" si="6">G3-E4</f>
-        <v>1652.8125</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" ref="H4:H9" si="7">(H3+G4)/2</f>
-        <v>1787.34375</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="C8" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="2"/>
-        <v>39.321562500000006</v>
-      </c>
-      <c r="J4" s="11">
+        <v>0.150146484375</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(1+$B$4/100)^C8</f>
+        <v>6.0004139002897507E-2</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
-        <v>26.540934660057342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>500000</v>
-      </c>
-      <c r="C5" s="9">
+        <v>1640.050048828125</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D5" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="5"/>
-        <v>9.609375</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>5.6895214153541644</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" si="6"/>
-        <v>1643.203125</v>
-      </c>
-      <c r="H5" s="10">
-        <f t="shared" si="7"/>
-        <v>1715.2734375</v>
-      </c>
-      <c r="I5" s="10">
+        <v>1649.5843505859375</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>36.290855712890625</v>
+      </c>
+      <c r="I8" s="6">
+        <f>H8/(1+$B$4/100)^C8</f>
+        <v>14.503180409417336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="2"/>
-        <v>37.736015625</v>
-      </c>
-      <c r="J5" s="11">
+        <v>3.753662109375E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <f>D9/(1+$B$4/100)^C9</f>
+        <v>1.3158802412916119E-2</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="3"/>
-        <v>22.342750598095801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9">
+        <v>1640.0125122070313</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="5"/>
-        <v>2.40234375</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="1"/>
-        <v>1.2477020647706498</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="6"/>
-        <v>1640.80078125</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="7"/>
-        <v>1678.037109375</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="2"/>
-        <v>36.916816406250007</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="3"/>
-        <v>19.173437629330582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="5"/>
-        <v>0.6005859375</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>0.27361887385321265</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="6"/>
-        <v>1640.2001953125</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="7"/>
-        <v>1659.11865234375</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="2"/>
-        <v>36.500610351562507</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="3"/>
-        <v>16.629187058429004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="D8" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="5"/>
-        <v>0.150146484375</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="1"/>
-        <v>6.0004139002897507E-2</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="6"/>
-        <v>1640.050048828125</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="7"/>
-        <v>1649.5843505859375</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
-        <v>36.290855712890625</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="3"/>
-        <v>14.503180409417336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E9" s="19">
-        <f t="shared" si="5"/>
-        <v>3.753662109375E-2</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3158802412916119E-2</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="6"/>
-        <v>1640.0125122070313</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="7"/>
         <v>1644.7984313964844</v>
       </c>
-      <c r="I9" s="13">
-        <f t="shared" si="2"/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
         <v>36.185565490722659</v>
       </c>
-      <c r="J9" s="14">
-        <f t="shared" si="3"/>
+      <c r="I9" s="8">
+        <f>H9/(1+$B$4/100)^C9</f>
         <v>12.68517763766803</v>
       </c>
     </row>
@@ -1354,363 +1435,548 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="4">
         <v>2460</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="27">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="23">
         <f>1/8*100%</f>
         <v>0.125</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <f t="shared" ref="E2:E8" si="0">($B$2)/($B$3*($B$3+1)/2)*($B$3-C2+1)</f>
         <v>546.66666666666663</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="17">
         <f>E2/(1+$B$4/100)^C2</f>
         <v>479.53216374268999</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="17">
         <f>$B$2-E2</f>
         <v>1913.3333333333335</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="17">
         <f>($B$2+G2)/2</f>
         <v>2186.666666666667</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="17">
         <f>$B$7/100*H2</f>
         <v>48.106666666666676</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="18">
         <f>I2/(1+$B$4/100)^C2</f>
         <v>42.198830409356731</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="27">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="24">
         <f t="shared" ref="D3:D9" si="1">1/8*100%</f>
         <v>0.125</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>478.33333333333331</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F9" si="2">E3/(1+$B$4/100)^C3</f>
         <v>368.06196778495939</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="17">
         <f>G2-E3</f>
         <v>1435.0000000000002</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="17">
         <f>(H2+G3)/2</f>
         <v>1810.8333333333335</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="17">
         <f t="shared" ref="I3:I9" si="3">$B$7/100*H3</f>
         <v>39.838333333333338</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="18">
         <f t="shared" ref="J3:J9" si="4">I3/(1+$B$4/100)^C3</f>
         <v>30.654303888375907</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
-        <f t="shared" ref="C4:C10" si="5">C3+1</f>
+      <c r="C4" s="27">
+        <f t="shared" ref="C4:C9" si="5">C3+1</f>
         <v>3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="24">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="17">
         <f t="shared" si="2"/>
         <v>276.73832164282658</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="17">
         <f t="shared" ref="G4:G9" si="6">G3-E4</f>
         <v>1025.0000000000002</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="17">
         <f t="shared" ref="H4:H9" si="7">(H3+G4)/2</f>
         <v>1417.916666666667</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="17">
         <f t="shared" si="3"/>
         <v>31.194166666666675</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="18">
         <f t="shared" si="4"/>
         <v>21.055173971658395</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>500000</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="27">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="24">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>341.66666666666663</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="17">
         <f t="shared" si="2"/>
         <v>202.29409476814803</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="17">
         <f t="shared" si="6"/>
         <v>683.3333333333336</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="17">
         <f t="shared" si="7"/>
         <v>1050.6250000000002</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="17">
         <f t="shared" si="3"/>
         <v>23.113750000000007</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="18">
         <f t="shared" si="4"/>
         <v>13.685195511065221</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="27">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="24">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>273.33333333333331</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="17">
         <f t="shared" si="2"/>
         <v>141.9607682583495</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="17">
         <f t="shared" si="6"/>
         <v>410.00000000000028</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="17">
         <f t="shared" si="7"/>
         <v>730.31250000000023</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="17">
         <f t="shared" si="3"/>
         <v>16.066875000000007</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="18">
         <f t="shared" si="4"/>
         <v>8.3446314091861105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="27">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="24">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="17">
         <f t="shared" si="2"/>
         <v>93.395242275229919</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="17">
         <f t="shared" si="6"/>
         <v>205.00000000000028</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="17">
         <f t="shared" si="7"/>
         <v>467.65625000000023</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="17">
         <f t="shared" si="3"/>
         <v>10.288437500000006</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="18">
         <f t="shared" si="4"/>
         <v>4.6872737216881042</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="24">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>136.66666666666666</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="17">
         <f t="shared" si="2"/>
         <v>54.617100745748481</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="17">
         <f t="shared" si="6"/>
         <v>68.333333333333627</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="17">
         <f t="shared" si="7"/>
         <v>267.99479166666691</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="17">
         <f t="shared" si="3"/>
         <v>5.8958854166666725</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="18">
         <f t="shared" si="4"/>
         <v>2.3562158618595581</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="28">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="25">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="26">
         <f>($B$2)/($B$3*($B$3+1)/2)*($B$3-C9+1)</f>
         <v>68.333333333333329</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="20">
         <f t="shared" si="2"/>
         <v>23.954868748135297</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="20">
         <f t="shared" si="6"/>
         <v>2.9842794901924208E-13</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="20">
         <f t="shared" si="7"/>
         <v>133.9973958333336</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="20">
         <f t="shared" si="3"/>
         <v>2.9479427083333394</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="21">
         <f t="shared" si="4"/>
         <v>1.0334280095875263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B2A2B1-FECB-4481-B27E-C076AA078C1F}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37">
+        <f>Линейный_метод!D2</f>
+        <v>307.5</v>
+      </c>
+      <c r="C2" s="37">
+        <f>Метод_уменьшаемого_остатка!D2</f>
+        <v>615</v>
+      </c>
+      <c r="D2" s="35">
+        <f>(C2-B2)*0.2</f>
+        <v>61.5</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="37">
+        <f>Линейный_метод!D3</f>
+        <v>307.5</v>
+      </c>
+      <c r="C3" s="37">
+        <f>Метод_уменьшаемого_остатка!D3</f>
+        <v>153.75</v>
+      </c>
+      <c r="D3" s="35">
+        <f t="shared" ref="D3:D9" si="0">(C3-B3)*0.2</f>
+        <v>-30.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="37">
+        <f>Линейный_метод!D4</f>
+        <v>307.5</v>
+      </c>
+      <c r="C4" s="37">
+        <f>Метод_уменьшаемого_остатка!D4</f>
+        <v>38.4375</v>
+      </c>
+      <c r="D4" s="35">
+        <f t="shared" si="0"/>
+        <v>-53.8125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="37">
+        <f>Линейный_метод!D5</f>
+        <v>307.5</v>
+      </c>
+      <c r="C5" s="37">
+        <f>Метод_уменьшаемого_остатка!D5</f>
+        <v>9.609375</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" si="0"/>
+        <v>-59.578125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="37">
+        <f>Линейный_метод!D6</f>
+        <v>307.5</v>
+      </c>
+      <c r="C6" s="37">
+        <f>Метод_уменьшаемого_остатка!D6</f>
+        <v>2.40234375</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="0"/>
+        <v>-61.01953125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="37">
+        <f>Линейный_метод!D7</f>
+        <v>307.5</v>
+      </c>
+      <c r="C7" s="37">
+        <f>Метод_уменьшаемого_остатка!D7</f>
+        <v>0.6005859375</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
+        <v>-61.3798828125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="37">
+        <f>Линейный_метод!D8</f>
+        <v>307.5</v>
+      </c>
+      <c r="C8" s="37">
+        <f>Метод_уменьшаемого_остатка!D8</f>
+        <v>0.150146484375</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="0"/>
+        <v>-61.469970703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="37">
+        <f>Линейный_метод!D9</f>
+        <v>307.5</v>
+      </c>
+      <c r="C9" s="37">
+        <f>Метод_уменьшаемого_остатка!D9</f>
+        <v>3.753662109375E-2</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="0"/>
+        <v>-61.49249267578125</v>
       </c>
     </row>
   </sheetData>
